--- a/ig/ANS-006-115-#150-#67/StructureDefinition-sdo-task.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-sdo-task.xlsx
@@ -10266,7 +10266,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>86</v>
@@ -11410,7 +11410,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>86</v>
@@ -12554,7 +12554,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>86</v>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>86</v>
@@ -14838,7 +14838,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>86</v>
@@ -15982,7 +15982,7 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>86</v>
@@ -17126,7 +17126,7 @@
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>86</v>
@@ -18270,7 +18270,7 @@
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>86</v>
@@ -19412,7 +19412,7 @@
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>86</v>
@@ -20554,7 +20554,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>86</v>
@@ -21698,7 +21698,7 @@
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>86</v>
@@ -22840,7 +22840,7 @@
       </c>
       <c r="E178" s="2"/>
       <c r="F178" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>86</v>
@@ -23982,7 +23982,7 @@
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>86</v>
@@ -25126,7 +25126,7 @@
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>86</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="E208" s="2"/>
       <c r="F208" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G208" t="s" s="2">
         <v>86</v>
@@ -27410,7 +27410,7 @@
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G218" t="s" s="2">
         <v>86</v>
@@ -28554,7 +28554,7 @@
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>86</v>

--- a/ig/ANS-006-115-#150-#67/StructureDefinition-sdo-task.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-sdo-task.xlsx
@@ -5370,10 +5370,10 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S25" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>76</v>
@@ -5714,10 +5714,10 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S28" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -10300,10 +10300,10 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S68" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>76</v>
@@ -11444,10 +11444,10 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>76</v>
@@ -12588,10 +12588,10 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S88" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>76</v>
@@ -13730,10 +13730,10 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S98" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>76</v>
@@ -14872,10 +14872,10 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S108" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T108" t="s" s="2">
         <v>76</v>
@@ -16016,10 +16016,10 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S118" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>76</v>
@@ -17160,10 +17160,10 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S128" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>76</v>
@@ -18304,10 +18304,10 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S138" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T138" t="s" s="2">
         <v>76</v>
@@ -19446,10 +19446,10 @@
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S148" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>76</v>
@@ -20588,10 +20588,10 @@
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S158" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>76</v>
@@ -21732,10 +21732,10 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S168" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="S168" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>76</v>
@@ -22874,10 +22874,10 @@
       </c>
       <c r="Q178" s="2"/>
       <c r="R178" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S178" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="S178" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T178" t="s" s="2">
         <v>76</v>
@@ -24016,10 +24016,10 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S188" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="S188" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T188" t="s" s="2">
         <v>76</v>
@@ -25160,10 +25160,10 @@
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S198" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="S198" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T198" t="s" s="2">
         <v>76</v>
@@ -26302,10 +26302,10 @@
       </c>
       <c r="Q208" s="2"/>
       <c r="R208" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S208" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="S208" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T208" t="s" s="2">
         <v>76</v>
@@ -27444,10 +27444,10 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S218" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="S218" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>76</v>
@@ -28588,10 +28588,10 @@
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S228" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="S228" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T228" t="s" s="2">
         <v>76</v>

--- a/ig/ANS-006-115-#150-#67/StructureDefinition-sdo-task.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-sdo-task.xlsx
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {input.type.where(text='idUnite').exists() and input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() or input.type.where(text='statutUnite').exists().not()}regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : Code 46 « Hébergement (accueil jour et nuit) » = Internat (1),Code 47 « Accueil de jour » = externat (2), semi-internat (3) ou accueil de jour (6),Code 48 Accueil de nuit » = Accueil de nuit (4) {input.where(type.text='modePriseCharge').value.coding.code='48' or input.where(type.text='modePriseCharge').value.coding.code='47'  or input.where(type.text='modePriseCharge').value.coding.code='46' or input.where(type.text='modePriseCharge').exists().not() }</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {(input.type.where(text='idUnite').exists()) implies (input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() and input.type.where(text='statutUnite').exists())}regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : Code 46 « Hébergement (accueil jour et nuit) » = Internat (1),Code 47 « Accueil de jour » = externat (2), semi-internat (3) ou accueil de jour (6),Code 48 Accueil de nuit » = Accueil de nuit (4) {input.where(type.text='modePriseCharge').value.coding.code='48' or input.where(type.text='modePriseCharge').value.coding.code='47'  or input.where(type.text='modePriseCharge').value.coding.code='46' or input.where(type.text='modePriseCharge').exists().not() }</t>
   </si>
   <si>
     <t>Request, Event</t>

--- a/ig/ANS-006-115-#150-#67/StructureDefinition-sdo-task.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-sdo-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6074" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6074" uniqueCount="649">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T09:51:35+02:00</t>
+    <t>2024-03-25T16:25:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -775,9 +775,6 @@
   </si>
   <si>
     <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
-  </si>
-  <si>
-    <t>completed</t>
   </si>
   <si>
     <t>required</t>
@@ -5251,28 +5248,28 @@
         <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>242</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -5305,13 +5302,13 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
@@ -5319,10 +5316,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5345,16 +5342,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5383,7 +5380,7 @@
         <v>156</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -5404,7 +5401,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -5422,21 +5419,21 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5459,19 +5456,19 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -5499,7 +5496,7 @@
         <v>156</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -5520,7 +5517,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5538,21 +5535,21 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5578,13 +5575,13 @@
         <v>166</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5595,29 +5592,29 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="T28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5634,7 +5631,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -5649,13 +5646,13 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -5663,10 +5660,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5692,50 +5689,50 @@
         <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>243</v>
       </c>
       <c r="O29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q29" t="s" s="2">
+      <c r="R29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="R29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5752,7 +5749,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5767,13 +5764,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5781,10 +5778,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5807,16 +5804,16 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5845,11 +5842,11 @@
         <v>156</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5866,7 +5863,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5881,24 +5878,24 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM30" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AN30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5924,10 +5921,10 @@
         <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>243</v>
@@ -5980,7 +5977,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5998,7 +5995,7 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -6009,10 +6006,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6038,16 +6035,16 @@
         <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -6096,7 +6093,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6114,10 +6111,10 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -6125,14 +6122,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6154,16 +6151,16 @@
         <v>219</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>222</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -6212,7 +6209,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6227,13 +6224,13 @@
         <v>223</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -6241,10 +6238,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6267,19 +6264,19 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>222</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -6328,7 +6325,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6343,13 +6340,13 @@
         <v>223</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>76</v>
@@ -6357,10 +6354,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6383,16 +6380,16 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6442,7 +6439,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6454,31 +6451,31 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6497,17 +6494,17 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -6556,7 +6553,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6565,19 +6562,19 @@
         <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -6585,14 +6582,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6611,17 +6608,17 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -6670,7 +6667,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6679,7 +6676,7 @@
         <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>99</v>
@@ -6688,7 +6685,7 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6699,10 +6696,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6725,19 +6722,19 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>222</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -6786,7 +6783,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6801,13 +6798,13 @@
         <v>223</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6815,10 +6812,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6841,19 +6838,19 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6881,11 +6878,11 @@
         <v>170</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6902,7 +6899,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6917,28 +6914,28 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM39" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="AN39" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6957,19 +6954,19 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -7018,7 +7015,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -7033,13 +7030,13 @@
         <v>223</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="AM40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -7047,10 +7044,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7073,19 +7070,19 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>222</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -7134,7 +7131,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -7149,13 +7146,13 @@
         <v>223</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -7163,10 +7160,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7189,16 +7186,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7227,7 +7224,7 @@
         <v>156</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -7248,7 +7245,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7263,24 +7260,24 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7306,13 +7303,13 @@
         <v>219</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7362,7 +7359,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7377,13 +7374,13 @@
         <v>223</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -7391,10 +7388,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7417,13 +7414,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>222</v>
@@ -7476,7 +7473,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7491,24 +7488,24 @@
         <v>223</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>401</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7531,16 +7528,16 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7590,7 +7587,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7605,10 +7602,10 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -7619,14 +7616,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7645,16 +7642,16 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7704,7 +7701,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7719,10 +7716,10 @@
         <v>223</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7733,10 +7730,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7759,17 +7756,17 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7818,7 +7815,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7836,7 +7833,7 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7847,10 +7844,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7959,10 +7956,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8073,14 +8070,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8102,10 +8099,10 @@
         <v>109</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>112</v>
@@ -8160,7 +8157,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8189,10 +8186,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8215,19 +8212,19 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -8276,7 +8273,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8294,7 +8291,7 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -8305,10 +8302,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8331,19 +8328,19 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -8392,7 +8389,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8404,27 +8401,27 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8447,13 +8444,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>222</v>
@@ -8506,7 +8503,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8524,7 +8521,7 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -8535,18 +8532,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8561,17 +8558,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -8608,7 +8605,7 @@
         <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
@@ -8618,7 +8615,7 @@
         <v>115</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8636,7 +8633,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -8647,10 +8644,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8759,10 +8756,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8873,14 +8870,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8902,10 +8899,10 @@
         <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>112</v>
@@ -8960,7 +8957,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8989,14 +8986,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9015,19 +9012,19 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -9055,7 +9052,7 @@
         <v>156</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>76</v>
@@ -9076,7 +9073,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -9094,21 +9091,21 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9131,13 +9128,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9188,7 +9185,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>86</v>
@@ -9206,7 +9203,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -9217,16 +9214,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="D60" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="D60" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9245,17 +9242,17 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -9304,7 +9301,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9322,7 +9319,7 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -9333,10 +9330,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9445,10 +9442,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9559,14 +9556,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9588,10 +9585,10 @@
         <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>112</v>
@@ -9646,7 +9643,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9675,14 +9672,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9701,19 +9698,19 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9723,7 +9720,7 @@
         <v>76</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>76</v>
@@ -9741,7 +9738,7 @@
         <v>156</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>76</v>
@@ -9762,7 +9759,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>86</v>
@@ -9780,21 +9777,21 @@
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9820,10 +9817,10 @@
         <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9874,7 +9871,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>86</v>
@@ -9892,7 +9889,7 @@
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9903,16 +9900,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="D66" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="D66" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9931,17 +9928,17 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -9990,7 +9987,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10008,7 +10005,7 @@
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -10019,10 +10016,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10131,10 +10128,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10245,14 +10242,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10274,10 +10271,10 @@
         <v>109</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>112</v>
@@ -10332,7 +10329,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10361,14 +10358,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10387,19 +10384,19 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -10409,7 +10406,7 @@
         <v>76</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>76</v>
@@ -10427,7 +10424,7 @@
         <v>156</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>76</v>
@@ -10448,7 +10445,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>86</v>
@@ -10466,21 +10463,21 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10506,10 +10503,10 @@
         <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10560,7 +10557,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>86</v>
@@ -10578,7 +10575,7 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -10589,16 +10586,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C72" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="D72" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="D72" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10617,17 +10614,17 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -10676,7 +10673,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10694,7 +10691,7 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10705,10 +10702,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10817,10 +10814,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10931,14 +10928,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10960,10 +10957,10 @@
         <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>112</v>
@@ -11018,7 +11015,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11047,14 +11044,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11073,19 +11070,19 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -11095,7 +11092,7 @@
         <v>76</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>76</v>
@@ -11113,7 +11110,7 @@
         <v>156</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>76</v>
@@ -11134,7 +11131,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>86</v>
@@ -11152,21 +11149,21 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11189,13 +11186,13 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11222,11 +11219,11 @@
         <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>76</v>
@@ -11244,7 +11241,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>86</v>
@@ -11262,7 +11259,7 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -11273,16 +11270,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C78" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="D78" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="D78" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11301,17 +11298,17 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -11360,7 +11357,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11378,7 +11375,7 @@
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -11389,10 +11386,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11501,10 +11498,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11615,14 +11612,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11644,10 +11641,10 @@
         <v>109</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>112</v>
@@ -11702,7 +11699,7 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11731,14 +11728,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11757,19 +11754,19 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>76</v>
@@ -11779,7 +11776,7 @@
         <v>76</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>76</v>
@@ -11797,7 +11794,7 @@
         <v>156</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -11818,7 +11815,7 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>86</v>
@@ -11836,21 +11833,21 @@
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11873,13 +11870,13 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11906,11 +11903,11 @@
         <v>76</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>76</v>
@@ -11928,7 +11925,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>86</v>
@@ -11946,7 +11943,7 @@
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>76</v>
@@ -11957,16 +11954,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C84" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="D84" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11985,17 +11982,17 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -12044,7 +12041,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12062,7 +12059,7 @@
         <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -12073,10 +12070,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12185,10 +12182,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12299,14 +12296,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12328,10 +12325,10 @@
         <v>109</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>112</v>
@@ -12386,7 +12383,7 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12415,14 +12412,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12441,19 +12438,19 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>76</v>
@@ -12463,7 +12460,7 @@
         <v>76</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>76</v>
@@ -12481,7 +12478,7 @@
         <v>156</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>76</v>
@@ -12502,7 +12499,7 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>86</v>
@@ -12520,21 +12517,21 @@
         <v>76</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12557,13 +12554,13 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12614,7 +12611,7 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>86</v>
@@ -12632,7 +12629,7 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
@@ -12643,16 +12640,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C90" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="D90" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="D90" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12671,17 +12668,17 @@
         <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>76</v>
@@ -12730,7 +12727,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12748,7 +12745,7 @@
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12759,10 +12756,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12871,10 +12868,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12985,14 +12982,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13014,10 +13011,10 @@
         <v>109</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>112</v>
@@ -13072,7 +13069,7 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -13101,14 +13098,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13127,19 +13124,19 @@
         <v>76</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>76</v>
@@ -13149,7 +13146,7 @@
         <v>76</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>76</v>
@@ -13167,7 +13164,7 @@
         <v>156</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>76</v>
@@ -13188,7 +13185,7 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>86</v>
@@ -13206,21 +13203,21 @@
         <v>76</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13246,10 +13243,10 @@
         <v>198</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13300,7 +13297,7 @@
         <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>86</v>
@@ -13318,7 +13315,7 @@
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>76</v>
@@ -13329,16 +13326,16 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="D96" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="D96" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13357,17 +13354,17 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>76</v>
@@ -13416,7 +13413,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13434,7 +13431,7 @@
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -13445,10 +13442,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13557,10 +13554,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13671,14 +13668,14 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13700,10 +13697,10 @@
         <v>109</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>112</v>
@@ -13758,7 +13755,7 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -13787,14 +13784,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13813,19 +13810,19 @@
         <v>76</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>76</v>
@@ -13835,7 +13832,7 @@
         <v>76</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>76</v>
@@ -13853,7 +13850,7 @@
         <v>156</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>76</v>
@@ -13874,7 +13871,7 @@
         <v>76</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>86</v>
@@ -13892,21 +13889,21 @@
         <v>76</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13932,10 +13929,10 @@
         <v>102</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13986,7 +13983,7 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>86</v>
@@ -14004,7 +14001,7 @@
         <v>76</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>76</v>
@@ -14015,16 +14012,16 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C102" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="D102" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="D102" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14043,17 +14040,17 @@
         <v>76</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>76</v>
@@ -14102,7 +14099,7 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>77</v>
@@ -14120,7 +14117,7 @@
         <v>76</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -14131,10 +14128,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14243,10 +14240,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14357,14 +14354,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14386,10 +14383,10 @@
         <v>109</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>112</v>
@@ -14444,7 +14441,7 @@
         <v>76</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>77</v>
@@ -14473,14 +14470,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14499,19 +14496,19 @@
         <v>76</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>76</v>
@@ -14521,7 +14518,7 @@
         <v>76</v>
       </c>
       <c r="S106" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T106" t="s" s="2">
         <v>76</v>
@@ -14539,7 +14536,7 @@
         <v>156</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>76</v>
@@ -14560,7 +14557,7 @@
         <v>76</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>86</v>
@@ -14578,21 +14575,21 @@
         <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14615,13 +14612,13 @@
         <v>76</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14648,11 +14645,11 @@
         <v>76</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>76</v>
@@ -14670,7 +14667,7 @@
         <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>86</v>
@@ -14688,7 +14685,7 @@
         <v>76</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
@@ -14699,16 +14696,16 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C108" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="D108" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="D108" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14727,17 +14724,17 @@
         <v>76</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>76</v>
@@ -14786,7 +14783,7 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -14804,7 +14801,7 @@
         <v>76</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
@@ -14815,10 +14812,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14927,10 +14924,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15041,14 +15038,14 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15070,10 +15067,10 @@
         <v>109</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>112</v>
@@ -15128,7 +15125,7 @@
         <v>76</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15157,14 +15154,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15183,19 +15180,19 @@
         <v>76</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N112" t="s" s="2">
+      <c r="O112" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>76</v>
@@ -15205,7 +15202,7 @@
         <v>76</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>76</v>
@@ -15223,7 +15220,7 @@
         <v>156</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>76</v>
@@ -15244,7 +15241,7 @@
         <v>76</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>86</v>
@@ -15262,21 +15259,21 @@
         <v>76</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15299,13 +15296,13 @@
         <v>76</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15332,11 +15329,11 @@
         <v>76</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y113" s="2"/>
       <c r="Z113" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>76</v>
@@ -15354,7 +15351,7 @@
         <v>76</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>86</v>
@@ -15372,7 +15369,7 @@
         <v>76</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
@@ -15383,16 +15380,16 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C114" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="D114" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="D114" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15411,17 +15408,17 @@
         <v>76</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>76</v>
@@ -15470,7 +15467,7 @@
         <v>76</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>77</v>
@@ -15488,7 +15485,7 @@
         <v>76</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15499,10 +15496,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15611,10 +15608,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15725,14 +15722,14 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -15754,10 +15751,10 @@
         <v>109</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>112</v>
@@ -15812,7 +15809,7 @@
         <v>76</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
@@ -15841,14 +15838,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -15867,19 +15864,19 @@
         <v>76</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N118" t="s" s="2">
+      <c r="O118" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>76</v>
@@ -15889,7 +15886,7 @@
         <v>76</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>76</v>
@@ -15907,7 +15904,7 @@
         <v>156</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>76</v>
@@ -15928,7 +15925,7 @@
         <v>76</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>86</v>
@@ -15946,21 +15943,21 @@
         <v>76</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15983,13 +15980,13 @@
         <v>76</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16040,7 +16037,7 @@
         <v>76</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>86</v>
@@ -16058,7 +16055,7 @@
         <v>76</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>76</v>
@@ -16069,16 +16066,16 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C120" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="D120" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="D120" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16097,17 +16094,17 @@
         <v>76</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>76</v>
@@ -16156,7 +16153,7 @@
         <v>76</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -16174,7 +16171,7 @@
         <v>76</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>76</v>
@@ -16185,10 +16182,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16297,10 +16294,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16411,14 +16408,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -16440,10 +16437,10 @@
         <v>109</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N123" t="s" s="2">
         <v>112</v>
@@ -16498,7 +16495,7 @@
         <v>76</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -16527,14 +16524,14 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -16553,19 +16550,19 @@
         <v>76</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>76</v>
@@ -16575,7 +16572,7 @@
         <v>76</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>76</v>
@@ -16593,7 +16590,7 @@
         <v>156</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16614,7 +16611,7 @@
         <v>76</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>86</v>
@@ -16632,21 +16629,21 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16669,13 +16666,13 @@
         <v>76</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -16702,11 +16699,11 @@
         <v>76</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y125" s="2"/>
       <c r="Z125" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>76</v>
@@ -16724,7 +16721,7 @@
         <v>76</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>86</v>
@@ -16742,7 +16739,7 @@
         <v>76</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>76</v>
@@ -16753,16 +16750,16 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C126" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="D126" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C126" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="D126" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -16781,17 +16778,17 @@
         <v>76</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>76</v>
@@ -16840,7 +16837,7 @@
         <v>76</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
@@ -16858,7 +16855,7 @@
         <v>76</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16869,10 +16866,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16981,10 +16978,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17095,14 +17092,14 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17124,10 +17121,10 @@
         <v>109</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>112</v>
@@ -17182,7 +17179,7 @@
         <v>76</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -17211,14 +17208,14 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -17237,19 +17234,19 @@
         <v>76</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>76</v>
@@ -17259,7 +17256,7 @@
         <v>76</v>
       </c>
       <c r="S130" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T130" t="s" s="2">
         <v>76</v>
@@ -17277,7 +17274,7 @@
         <v>156</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>76</v>
@@ -17298,7 +17295,7 @@
         <v>76</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>86</v>
@@ -17316,21 +17313,21 @@
         <v>76</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17353,13 +17350,13 @@
         <v>76</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17386,11 +17383,11 @@
         <v>76</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y131" s="2"/>
       <c r="Z131" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>76</v>
@@ -17408,7 +17405,7 @@
         <v>76</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>86</v>
@@ -17426,7 +17423,7 @@
         <v>76</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17437,16 +17434,16 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C132" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="D132" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C132" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="D132" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
@@ -17465,17 +17462,17 @@
         <v>76</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>76</v>
@@ -17524,7 +17521,7 @@
         <v>76</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>77</v>
@@ -17542,7 +17539,7 @@
         <v>76</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
@@ -17553,10 +17550,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17665,10 +17662,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17779,14 +17776,14 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -17808,10 +17805,10 @@
         <v>109</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N135" t="s" s="2">
         <v>112</v>
@@ -17866,7 +17863,7 @@
         <v>76</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>77</v>
@@ -17895,14 +17892,14 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
@@ -17921,19 +17918,19 @@
         <v>76</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>76</v>
@@ -17943,7 +17940,7 @@
         <v>76</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>76</v>
@@ -17961,7 +17958,7 @@
         <v>156</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17982,7 +17979,7 @@
         <v>76</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>86</v>
@@ -18000,21 +17997,21 @@
         <v>76</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18037,13 +18034,13 @@
         <v>76</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -18094,7 +18091,7 @@
         <v>76</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>86</v>
@@ -18112,7 +18109,7 @@
         <v>76</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
@@ -18123,16 +18120,16 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C138" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="D138" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C138" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="D138" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -18151,17 +18148,17 @@
         <v>76</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>76</v>
@@ -18210,7 +18207,7 @@
         <v>76</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>77</v>
@@ -18228,7 +18225,7 @@
         <v>76</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
@@ -18239,10 +18236,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18351,10 +18348,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18465,14 +18462,14 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -18494,10 +18491,10 @@
         <v>109</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N141" t="s" s="2">
         <v>112</v>
@@ -18552,7 +18549,7 @@
         <v>76</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>77</v>
@@ -18581,14 +18578,14 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
@@ -18607,19 +18604,19 @@
         <v>76</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N142" t="s" s="2">
+      <c r="O142" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>76</v>
@@ -18629,7 +18626,7 @@
         <v>76</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>76</v>
@@ -18647,7 +18644,7 @@
         <v>156</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>76</v>
@@ -18668,7 +18665,7 @@
         <v>76</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>86</v>
@@ -18686,21 +18683,21 @@
         <v>76</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18723,13 +18720,13 @@
         <v>76</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -18756,11 +18753,11 @@
         <v>76</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y143" s="2"/>
       <c r="Z143" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>76</v>
@@ -18778,7 +18775,7 @@
         <v>76</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>86</v>
@@ -18796,7 +18793,7 @@
         <v>76</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>76</v>
@@ -18807,16 +18804,16 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C144" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="D144" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C144" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="D144" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -18835,17 +18832,17 @@
         <v>76</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>76</v>
@@ -18894,7 +18891,7 @@
         <v>76</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>77</v>
@@ -18912,7 +18909,7 @@
         <v>76</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>76</v>
@@ -18923,10 +18920,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19035,10 +19032,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19149,14 +19146,14 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
@@ -19178,10 +19175,10 @@
         <v>109</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M147" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N147" t="s" s="2">
         <v>112</v>
@@ -19236,7 +19233,7 @@
         <v>76</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>77</v>
@@ -19265,14 +19262,14 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
@@ -19291,19 +19288,19 @@
         <v>76</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N148" t="s" s="2">
+      <c r="O148" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>76</v>
@@ -19313,7 +19310,7 @@
         <v>76</v>
       </c>
       <c r="S148" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="T148" t="s" s="2">
         <v>76</v>
@@ -19331,7 +19328,7 @@
         <v>156</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>76</v>
@@ -19352,7 +19349,7 @@
         <v>76</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>86</v>
@@ -19370,21 +19367,21 @@
         <v>76</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19407,13 +19404,13 @@
         <v>76</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -19440,11 +19437,11 @@
         <v>76</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y149" s="2"/>
       <c r="Z149" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>76</v>
@@ -19462,7 +19459,7 @@
         <v>76</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>86</v>
@@ -19480,7 +19477,7 @@
         <v>76</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>76</v>
@@ -19491,16 +19488,16 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C150" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="D150" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C150" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="D150" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -19519,17 +19516,17 @@
         <v>76</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>76</v>
@@ -19578,7 +19575,7 @@
         <v>76</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>77</v>
@@ -19596,7 +19593,7 @@
         <v>76</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>76</v>
@@ -19607,10 +19604,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19719,10 +19716,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19833,14 +19830,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -19862,10 +19859,10 @@
         <v>109</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N153" t="s" s="2">
         <v>112</v>
@@ -19920,7 +19917,7 @@
         <v>76</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>77</v>
@@ -19949,14 +19946,14 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -19975,19 +19972,19 @@
         <v>76</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>76</v>
@@ -19997,7 +19994,7 @@
         <v>76</v>
       </c>
       <c r="S154" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T154" t="s" s="2">
         <v>76</v>
@@ -20015,7 +20012,7 @@
         <v>156</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>76</v>
@@ -20036,7 +20033,7 @@
         <v>76</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>86</v>
@@ -20054,21 +20051,21 @@
         <v>76</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20094,10 +20091,10 @@
         <v>198</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -20148,7 +20145,7 @@
         <v>76</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>86</v>
@@ -20166,7 +20163,7 @@
         <v>76</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>76</v>
@@ -20177,16 +20174,16 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C156" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="D156" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="C156" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="D156" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
@@ -20205,17 +20202,17 @@
         <v>76</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>76</v>
@@ -20264,7 +20261,7 @@
         <v>76</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>77</v>
@@ -20282,7 +20279,7 @@
         <v>76</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>76</v>
@@ -20293,10 +20290,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20405,10 +20402,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20519,14 +20516,14 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -20548,10 +20545,10 @@
         <v>109</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N159" t="s" s="2">
         <v>112</v>
@@ -20606,7 +20603,7 @@
         <v>76</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>77</v>
@@ -20635,14 +20632,14 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
@@ -20661,19 +20658,19 @@
         <v>76</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N160" t="s" s="2">
+      <c r="O160" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>76</v>
@@ -20683,7 +20680,7 @@
         <v>76</v>
       </c>
       <c r="S160" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>76</v>
@@ -20701,7 +20698,7 @@
         <v>156</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>76</v>
@@ -20722,7 +20719,7 @@
         <v>76</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>86</v>
@@ -20740,21 +20737,21 @@
         <v>76</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20780,10 +20777,10 @@
         <v>198</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -20834,7 +20831,7 @@
         <v>76</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>86</v>
@@ -20852,7 +20849,7 @@
         <v>76</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>76</v>
@@ -20863,10 +20860,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20889,17 +20886,17 @@
         <v>76</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>76</v>
@@ -20948,7 +20945,7 @@
         <v>76</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>77</v>
@@ -20966,7 +20963,7 @@
         <v>76</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>76</v>
@@ -20977,10 +20974,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21089,10 +21086,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21203,14 +21200,14 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
@@ -21232,10 +21229,10 @@
         <v>109</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M165" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N165" t="s" s="2">
         <v>112</v>
@@ -21290,7 +21287,7 @@
         <v>76</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>77</v>
@@ -21319,14 +21316,14 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
@@ -21345,19 +21342,19 @@
         <v>76</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O166" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>76</v>
@@ -21385,7 +21382,7 @@
         <v>156</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>76</v>
@@ -21406,7 +21403,7 @@
         <v>76</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>86</v>
@@ -21424,21 +21421,21 @@
         <v>76</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -21461,17 +21458,17 @@
         <v>76</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>76</v>
@@ -21520,7 +21517,7 @@
         <v>76</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>86</v>
@@ -21538,7 +21535,7 @@
         <v>76</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>76</v>

--- a/ig/ANS-006-115-#150-#67/StructureDefinition-sdo-task.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T16:25:35+00:00</t>
+    <t>2024-03-26T08:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ANS-006-115-#150-#67/StructureDefinition-sdo-task.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T08:08:49+00:00</t>
+    <t>2024-03-26T08:51:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
